--- a/output/Bids_220425.xlsx
+++ b/output/Bids_220425.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>Quote</t>
   </si>
@@ -164,242 +164,15 @@
     <t>Quote Title_1</t>
   </si>
   <si>
-    <t>MOESCHETQ22001936</t>
-  </si>
-  <si>
-    <t>Provision of Cooperative Learning Workshop for Teachers in Lianhua Primary School</t>
-  </si>
-  <si>
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
-    <t>25 Apr 2022 09:19AM</t>
-  </si>
-  <si>
     <t>05 May 2022 01:00PM</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>MRS EMILY CHIA</t>
-  </si>
-  <si>
-    <t>chia_emily@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>2 Bukit Batok St 52 S659243</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001936</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001952</t>
-  </si>
-  <si>
-    <t>SUPPLY OF INSTRUCTORS FOR 2022 P3 &amp; P4 ANGKLUNG MUSIC LEARNING PROGRAMME FOR CHIJ OUR LADY OF GOOD COUNSEL.</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 06:35PM</t>
-  </si>
-  <si>
-    <t>04 May 2022 01:00PM</t>
-  </si>
-  <si>
-    <t>JUNIE ONG</t>
-  </si>
-  <si>
-    <t>ONG_JUNIE@MOE.EDU.SG</t>
-  </si>
-  <si>
-    <t>2C BURGHLEY DRIVE (558979)</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001952</t>
-  </si>
-  <si>
-    <t>SPO000ETQ22000123</t>
-  </si>
-  <si>
-    <t>SPO-REQ-2022-002416-SD-Provision of Coaching Service for Singapore Polytechnic (SP)  for Strength Athletics Club from Apr 2022 to 31 Mar 2023</t>
-  </si>
-  <si>
-    <t>Singapore Polytechnic</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 05:49PM</t>
-  </si>
-  <si>
-    <t>CHRISTINA SHO</t>
-  </si>
-  <si>
-    <t>christina_sho@sp.edu.sg</t>
-  </si>
-  <si>
-    <t>Department of Student Development, Singapore Polytechnic, 500 Dover Road, Singapore 139651</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\SPO000ETQ22000123</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001909</t>
-  </si>
-  <si>
-    <t>Mee Toh Sch: Provision of P5 Outdoor Adventure Learning Programme (non-residential) with booking of campsite 2022.</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 04:34PM</t>
-  </si>
-  <si>
-    <t>MR ROBIN ONG</t>
-  </si>
-  <si>
-    <t>ong_shuquan_robin@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>21 Edgedale Plains Singapore 828867</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001909</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001954</t>
-  </si>
-  <si>
-    <t>After-School Engagement Programme</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 04:19PM</t>
-  </si>
-  <si>
-    <t>MDM WOON WEI LI</t>
-  </si>
-  <si>
-    <t>woon_wei_li_a@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>300 Tanglin Halt Road, Singapore 148812</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001954</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001955</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Primary 3 Art Enrichment Programme Marbling in Nan Hua Primary School</t>
-  </si>
-  <si>
-    <t>22 Apr 2022 03:49PM</t>
-  </si>
-  <si>
-    <t>MRS JENNY CHEW</t>
-  </si>
-  <si>
-    <t>chew_gek_cheng_a@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>Nan Hua Primary School
-30 Jalan Lempeng
-Singapore 128806</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001955</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001875</t>
-  </si>
-  <si>
-    <t>Chinese Language Speech and Drama Programme for Primary 1 and Primary 2 Students 2022</t>
-  </si>
-  <si>
-    <t>MDM TAN SOH LENG</t>
-  </si>
-  <si>
-    <t>tan_soh_leng@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>210 Yishun Avenue 6 Singapore 768960</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001875</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001925</t>
-  </si>
-  <si>
-    <t>Supply of Instructors for Leadership Training for Prefects and CCA Leaders in Holy Innocents' Primary School</t>
-  </si>
-  <si>
-    <t>KWANG YU FUNG</t>
-  </si>
-  <si>
-    <t>kwang_yu_fung@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>Holy Innocents' Primary School
-5 Lorong Low Koon
-Singapore 536451</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001925</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001951</t>
-  </si>
-  <si>
-    <t>Provision of 3-Day Non-Residential P5 Outdoor Adventure Camp 2022 in CHIJ Our Lady Queen of Peace</t>
-  </si>
-  <si>
-    <t>MR LUKE GOH</t>
-  </si>
-  <si>
-    <t>luke_goh@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>4 Chestnut Drive , Singapore679287</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001951</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001948</t>
-  </si>
-  <si>
-    <t>To supply instructors for P3 English Language Oral Communication Programme in Clementi Primary School</t>
-  </si>
-  <si>
-    <t>TAN KIAN MUAR</t>
-  </si>
-  <si>
-    <t>tan_kian_muar@schools.gov.sg</t>
-  </si>
-  <si>
-    <t>8 Clementi Avenue 3 Singapore 129903</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001948</t>
-  </si>
-  <si>
-    <t>MOESCHETQ22001947</t>
-  </si>
-  <si>
-    <t>Ceramics Course for Primary 3 and 4 students for the Year 2022 in Edgefield Primary School</t>
-  </si>
-  <si>
-    <t>KOH SEOK HUI</t>
-  </si>
-  <si>
-    <t>koh_seok_hui@moe.edu.sg</t>
-  </si>
-  <si>
-    <t>41 Edgefield Plains
-Singapore 828869</t>
-  </si>
-  <si>
-    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001947</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -524,6 +297,50 @@
   </si>
   <si>
     <t>23,900.00 (SGD)</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001978</t>
+  </si>
+  <si>
+    <t>Supply of Instructors for Drones with Artificial Intelligence (AI) Workshop for Secondary 1 Students at Yusof Ishak Secondary School.</t>
+  </si>
+  <si>
+    <t>25 Apr 2022 02:49PM</t>
+  </si>
+  <si>
+    <t>ANG KAH TIONG</t>
+  </si>
+  <si>
+    <t>ang_kah_tiong@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>8 Sumang Walk Singapore 828676</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001978</t>
+  </si>
+  <si>
+    <t>MOESCHETQ22001983</t>
+  </si>
+  <si>
+    <t>Provision of Standard First Aid Course for Adults</t>
+  </si>
+  <si>
+    <t>25 Apr 2022 02:19PM</t>
+  </si>
+  <si>
+    <t>RASIDAH BTE MOHD RASIT</t>
+  </si>
+  <si>
+    <t>rasidah_mohd_rasit@schools.gov.sg</t>
+  </si>
+  <si>
+    <t>Frontier Primary School.
+20 Jurong West St 61.
+Singapore (648200).</t>
+  </si>
+  <si>
+    <t>C:\Proj\UiPath\SCT9_Diamond_Project1\output\OPEN\MOESCHETQ22001983</t>
   </si>
 </sst>
 </file>
@@ -957,34 +774,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,34 +786,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2590,19 +2353,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2610,19 +2373,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2630,19 +2393,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,19 +2413,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2670,19 +2433,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -2690,19 +2453,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2710,19 +2473,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -2730,19 +2493,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,19 +2513,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>151</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2770,19 +2533,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
@@ -2849,10 +2612,10 @@
         <v>19</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>35</v>
@@ -2896,49 +2659,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1">
-        <v>65639502</v>
+        <v>65009800</v>
+      </c>
+      <c r="M2" s="1">
+        <v>65675502</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="O2" s="1">
-        <v>30</v>
+        <v>361</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -2946,520 +2712,52 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="L3" s="1">
-        <v>62886930</v>
+        <v>65789555</v>
       </c>
       <c r="M3" s="1">
-        <v>62814132</v>
+        <v>67908596</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="O3" s="1">
-        <v>227</v>
+        <v>115</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="1">
-        <v>68707944</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" s="1">
-        <v>178</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="1">
-        <v>64893326</v>
-      </c>
-      <c r="M5" s="1">
-        <v>64893243</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="O5" s="1">
-        <v>262</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L6" s="1">
-        <v>64748805</v>
-      </c>
-      <c r="M6" s="1">
-        <v>64741249</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="1">
-        <v>103</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="1">
-        <v>67788050</v>
-      </c>
-      <c r="M7" s="1">
-        <v>67784127</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" s="1">
-        <v>348</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="1">
-        <v>67593235</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O8" s="1">
-        <v>295</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="L9" s="1">
-        <v>62886516</v>
-      </c>
-      <c r="M9" s="1">
-        <v>62876393</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O9" s="1">
-        <v>138</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="1">
-        <v>67691529</v>
-      </c>
-      <c r="M10" s="1">
-        <v>67653551</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O10" s="1">
-        <v>283</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L11" s="1">
-        <v>67797449</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="1">
-        <v>330</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L12" s="1">
-        <v>63126091</v>
-      </c>
-      <c r="M12" s="1">
-        <v>63126093</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O12" s="1">
-        <v>400</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3526,10 +2824,10 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="P1" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
         <v>35</v>
@@ -3537,527 +2835,227 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="L2">
-        <v>63126091</v>
+        <v>65009800</v>
       </c>
       <c r="M2">
-        <v>63126093</v>
+        <v>65675502</v>
       </c>
       <c r="N2" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="O2">
-        <v>400</v>
+        <v>361</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3">
-        <v>67788050</v>
-      </c>
-      <c r="M3">
-        <v>67784127</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
-      </c>
-      <c r="O3">
-        <v>348</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>83</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L4">
-        <v>67797449</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4">
-        <v>330</v>
-      </c>
-      <c r="P4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>107</v>
-      </c>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5">
-        <v>67593235</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="s">
-        <v>88</v>
-      </c>
-      <c r="O5">
-        <v>295</v>
-      </c>
-      <c r="P5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>89</v>
-      </c>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6">
-        <v>67691529</v>
-      </c>
-      <c r="M6">
-        <v>67653551</v>
-      </c>
-      <c r="N6" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6">
-        <v>283</v>
-      </c>
-      <c r="P6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>101</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7">
-        <v>64893326</v>
-      </c>
-      <c r="M7">
-        <v>64893243</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7">
-        <v>262</v>
-      </c>
-      <c r="P7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8">
-        <v>62886930</v>
-      </c>
-      <c r="M8">
-        <v>62814132</v>
-      </c>
-      <c r="N8" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8">
-        <v>227</v>
-      </c>
-      <c r="P8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>54</v>
-      </c>
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
-      </c>
-      <c r="L9">
-        <v>68707944</v>
-      </c>
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" t="s">
-        <v>61</v>
-      </c>
-      <c r="O9">
-        <v>178</v>
-      </c>
-      <c r="P9" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>62</v>
-      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10">
-        <v>62886516</v>
-      </c>
-      <c r="M10">
-        <v>62876393</v>
-      </c>
-      <c r="N10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10">
-        <v>138</v>
-      </c>
-      <c r="P10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>95</v>
-      </c>
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11">
-        <v>64748805</v>
-      </c>
-      <c r="M11">
-        <v>64741249</v>
-      </c>
-      <c r="N11" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11">
-        <v>103</v>
-      </c>
-      <c r="P11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12"/>
@@ -6323,7 +5321,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="9">
         <f>COUNT(OpenBids!A:A)</f>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="6"/>
@@ -6392,16 +5390,16 @@
     <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <f>'Top5'!A2</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" s="28" t="str">
         <f>'Top5'!C2</f>
-        <v>MOESCHETQ22001947</v>
+        <v>MOESCHETQ22001978</v>
       </c>
       <c r="D14" s="30"/>
       <c r="E14" s="35" t="str">
         <f>'Top5'!E2</f>
-        <v>Ceramics Course for Primary 3 and 4 students for the Year 2022 in Edgefield Primary School</v>
+        <v>Supply of Instructors for Drones with Artificial Intelligence (AI) Workshop for Secondary 1 Students at Yusof Ishak Secondary School.</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36"/>
@@ -6410,107 +5408,107 @@
       <c r="J14" s="37"/>
       <c r="K14" s="31" t="str">
         <f>'Top5'!H2</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>05 May 2022 01:00PM</v>
       </c>
       <c r="L14" s="29"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <f>'Top5'!A3</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28">
         <f>'Top5'!C3</f>
-        <v>MOESCHETQ22001955</v>
+        <v>0</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="35" t="str">
+      <c r="E15" s="35">
         <f>'Top5'!E3</f>
-        <v>Supply of Instructors for Primary 3 Art Enrichment Programme Marbling in Nan Hua Primary School</v>
+        <v>0</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36"/>
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
-      <c r="K15" s="31" t="str">
+      <c r="K15" s="31">
         <f>'Top5'!H3</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L15" s="29"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <f>'Top5'!A4</f>
-        <v>10</v>
-      </c>
-      <c r="C16" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C16" s="28">
         <f>'Top5'!C4</f>
-        <v>MOESCHETQ22001948</v>
+        <v>0</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="35" t="str">
+      <c r="E16" s="35">
         <f>'Top5'!E4</f>
-        <v>To supply instructors for P3 English Language Oral Communication Programme in Clementi Primary School</v>
+        <v>0</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="37"/>
-      <c r="K16" s="31" t="str">
+      <c r="K16" s="31">
         <f>'Top5'!H4</f>
-        <v>05 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L16" s="29"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <f>'Top5'!A5</f>
-        <v>7</v>
-      </c>
-      <c r="C17" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C17" s="28">
         <f>'Top5'!C5</f>
-        <v>MOESCHETQ22001875</v>
+        <v>0</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="35" t="str">
+      <c r="E17" s="35">
         <f>'Top5'!E5</f>
-        <v>Chinese Language Speech and Drama Programme for Primary 1 and Primary 2 Students 2022</v>
+        <v>0</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
       <c r="I17" s="36"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="31" t="str">
+      <c r="K17" s="31">
         <f>'Top5'!H5</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="27">
         <f>'Top5'!A6</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="28" t="str">
+        <v>0</v>
+      </c>
+      <c r="C18" s="28">
         <f>'Top5'!C6</f>
-        <v>MOESCHETQ22001951</v>
+        <v>0</v>
       </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="32" t="str">
+      <c r="E18" s="32">
         <f>'Top5'!E6</f>
-        <v>Provision of 3-Day Non-Residential P5 Outdoor Adventure Camp 2022 in CHIJ Our Lady Queen of Peace</v>
+        <v>0</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34"/>
-      <c r="K18" s="31" t="str">
+      <c r="K18" s="31">
         <f>'Top5'!H6</f>
-        <v>04 May 2022 01:00PM</v>
+        <v>0</v>
       </c>
       <c r="L18" s="29"/>
     </row>
